--- a/borges.xlsx
+++ b/borges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
       <c r="E1" s="1" t="n">
         <v>900000</v>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>grupowanie</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,9 @@
           <t>1973 nr 12 (32)  s. 246–7,  Aluzja do śmierci pułkownika Francisco Borgesa ; Ajedrez</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,7 +496,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Chądzyńska, Z.</t>
@@ -498,6 +510,9 @@
         <is>
           <t>1972 nr 10 (18)  s. 24,  Zwykłość</t>
         </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +526,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Elbanowski, A.</t>
@@ -521,6 +540,9 @@
         <is>
           <t>1988 nr 12 (209)  s. 55,  Pałac</t>
         </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +556,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Engelking, L</t>
@@ -542,8 +568,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>~ s. 132–4,  Dwa  poematy  angielskie  [I. Na rogu opustoszałej ulicy znajduje mnie blask niepotrzebny..; II. Czym cię mam zatrzymać?..].</t>
-        </is>
+          <t>1988 nr 12 (209) s. 132–4,  Dwa  poematy  angielskie  [I. Na rogu opustoszałej ulicy znajduje mnie blask niepotrzebny..; II. Czym cię mam zatrzymać?..].</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -557,12 +586,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Engelking, L</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>1995 nr 5–6 (286–7)  s. 103–8,  Róża.. ; Miłosne przeczucie ; Odysea, pieśń dwudziesta trzecia ; Fragment : Miecz..</t>
         </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -576,12 +616,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Engelking, L</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>~ s. 107–8, Edgar Allan Poe</t>
-        </is>
+          <t>1995 nr 5–6 (286–7) s. 107–8, Edgar Allan Poe</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -595,12 +646,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Engelking, L</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>~ s. 116–21, Księżyc ;  Tanka  [Piosenka ptaka..] ; Gunnar Thorgilsson, 1816– 1879 ; Go ; Blake ; Siedemnaście haiku  [1. Mówiły do mnie..; 2. Przestrzenie nocy..; 3. Jest czy go nie ma..; 4. Umilkły struny..; 5. Nie cieszą dzisiaj..; 6. Na mroczną modłę..; 7. Od tamtej chwili..; 8. W pustce pustyni..; 9. Miecz nieruchomy..; 10. Ten człowiek umarł..; 11. Oto jest ręka..; 12. Tam, pod okapem..; 13. W blasku księżyca..; 14. Czy to imperium..; 15. Księżyc na nowiu..; 16. Tryl gdzieś w oddali..; 17. Zgrzybiała ręka..]</t>
-        </is>
+          <t>1995 nr 5–6 (286–7) s. 116–21, Księżyc ;  Tanka  [Piosenka ptaka..] ; Gunnar Thorgilsson, 1816– 1879 ; Go ; Blake ; Siedemnaście haiku  [1. Mówiły do mnie..; 2. Przestrzenie nocy..; 3. Jest czy go nie ma..; 4. Umilkły struny..; 5. Nie cieszą dzisiaj..; 6. Na mroczną modłę..; 7. Od tamtej chwili..; 8. W pustce pustyni..; 9. Miecz nieruchomy..; 10. Ten człowiek umarł..; 11. Oto jest ręka..; 12. Tam, pod okapem..; 13. W blasku księżyca..; 14. Czy to imperium..; 15. Księżyc na nowiu..; 16. Tryl gdzieś w oddali..; 17. Zgrzybiała ręka..]</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -614,7 +676,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Mroziński, M.</t>
@@ -624,6 +690,9 @@
         <is>
           <t>1971 nr 8  s. 30–1,  Zegar piaskowy</t>
         </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -637,7 +706,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Rodowska, K.</t>
@@ -647,6 +720,9 @@
         <is>
           <t>1988 nr 12 (209)  s. 3,  Współwinny</t>
         </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -660,12 +736,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rodowska, K.</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>~ s. 82–91,  Moje książki (które nie wiedzą, że istnieję)..; Sława ; Trzeci człowiek ; Chrystus na krzyżu. Stopy dotykają ziemi..; Nostalgia teraźniejszości ; Hymn  [Tego ranka..] ; Sprawiedliwi ; Szczęście ; Bambusowa laska ; Władza nad wczorajszym ; Samobójca.</t>
-        </is>
+          <t>1988 nr 12 (209) s. 82–91,  Moje książki (które nie wiedzą, że istnieję)..; Sława ; Trzeci człowiek ; Chrystus na krzyżu. Stopy dotykają ziemi..; Nostalgia teraźniejszości ; Hymn  [Tego ranka..] ; Sprawiedliwi ; Szczęście ; Bambusowa laska ; Władza nad wczorajszym ; Samobójca.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -679,12 +766,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rodowska, K.</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>1996 nr 5–6 (298–9)  s. 390–1,  Księżyc</t>
         </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -698,7 +796,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Sobol-Jurczykowski, A.</t>
@@ -708,6 +810,9 @@
         <is>
           <t>1971 nr 8 s. 32–4,  Heraklit ; Pochwała cienia.</t>
         </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -721,12 +826,23 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sobol-Jurczykowski, A.</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>1995 nr 5–6 (286–7)  s. 106–15,  Fragment : Miecz.. ; Hengist cyning ; Tamerlan 1336–1405 ; Jakieś jutro ; Tanka  [1. W górze, u szczytu..; 2. Już pienie ptaka..; 3. A obcy kielich..; 4. W blasku księżyca..; 5. Smutne są krople..; 6. Nie paść pod ciosem..] ; Brunanburh, 937 A.D. ; Talizmany</t>
         </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +856,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Stachura, E.</t>
@@ -750,6 +870,9 @@
         <is>
           <t>1973 nr 12 (32)  s. 244–5,  Morze ; Jonathan Edwards (1703-1758)</t>
         </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +886,11 @@
           <t>w i e r s z e</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Walasek-Elbanowska, D.</t>
@@ -773,6 +900,9 @@
         <is>
           <t>1988 nr 12 (209)  s. 70–1,  Hengist wzywa mężczyzn, A.D. 499</t>
         </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -789,6 +919,9 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -804,6 +937,9 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -813,12 +949,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Czas ;  tł. Elbanowski, A.,  ~ s. 36–44</t>
+          <t>Czas ;  tł. Elbanowski, A.,  1988 nr 12 (209) s. 36–44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -828,12 +967,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cztery cykle ;  tł. Walasek-Elbanowska, D.,  ~ s. 80–1</t>
+          <t>Cztery cykle ;  tł. Walasek-Elbanowska, D.,  1988 nr 12 (209) s. 80–1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -858,8 +1000,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ostatnia podróż Ulissesa,  ~ s. 89–94</t>
-        </is>
+          <t>Ostatnia podróż Ulissesa,  1995 nr 4 (285) s. 89–94</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -873,12 +1018,23 @@
           <t>[Dante Alighieri], 1995 nr 4 (285)  s. 62–94 :</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sobol-Jurczykowski, A.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Prolog,  ~ s. 67–73</t>
-        </is>
+          <t>Prolog,  1995 nr 4 (285) s. 67–73</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +1048,11 @@
           <t>[Dante Alighieri], 1995 nr 4 (285)  s. 62–94 :</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Zientara, M.</t>
@@ -900,8 +1060,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dante i wizjonerzy anglosaksońscy ,  ~ s. 62–6</t>
-        </is>
+          <t>Dante i wizjonerzy anglosaksońscy ,  1995 nr 4 (285) s. 62–6</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -915,12 +1078,23 @@
           <t>[Dante Alighieri], 1995 nr 4 (285)  s. 62–94 :</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Zientara, M.</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fałszywy problem Ugolina,  ~ s. 80–3</t>
-        </is>
+          <t>Fałszywy problem Ugolina,  1995 nr 4 (285) s. 80–3</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -934,12 +1108,23 @@
           <t>[Dante Alighieri], 1995 nr 4 (285)  s. 62–94 :</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zientara, M.</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Spotkanie we śnie,  ~ s. 84–8</t>
-        </is>
+          <t>Spotkanie we śnie,  1995 nr 4 (285) s. 84–8</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -953,12 +1138,23 @@
           <t>[Dante Alighieri], 1995 nr 4 (285)  s. 62–94 :</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Zientara, M.</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wspaniały zamek z Pieśni IV,  ~ s. 74–8</t>
-        </is>
+          <t>Wspaniały zamek z Pieśni IV,  1995 nr 4 (285) s. 74–8</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -975,6 +1171,9 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -997,6 +1196,9 @@
         <v/>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1012,6 +1214,9 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1027,6 +1232,9 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1036,12 +1244,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ewangelia według świętego Marka,  ~ s. 74–8 *</t>
+          <t>Ewangelia według świętego Marka,  1972 nr 10 (18) s. 74–8 tł. Chądzyńska, Z.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1057,6 +1268,9 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1072,6 +1286,9 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1081,12 +1298,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Historia wieczności ;  tł. Elbanowski, A., ~ s. 19–35 ?</t>
+          <t>Historia wieczności ;  tł. Elbanowski, A., 1972 nr 10 (18) s. 19–35 ?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1102,6 +1322,9 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1117,6 +1340,9 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1132,6 +1358,9 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1147,6 +1376,9 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1162,6 +1394,9 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1177,6 +1412,9 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1192,6 +1430,9 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1207,6 +1448,9 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1216,16 +1460,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Na marginesie estetyki modernistycznej ;  tł. Komarnicka, E.,</t>
+          <t>Na marginesie estetyki modernistycznej ;  tł. Komarnicka, E., 1995 nr 5–6 (286–7)  s. 122–4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1995 nr 5–6 (286–7)  s. 122–4</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1241,6 +1484,9 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1256,6 +1502,9 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1265,12 +1514,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pojedynek,  ~ s. 93–6 *</t>
+          <t>Pojedynek,  1995 nr 5–6 (286–7) s. 93–6 tł. Ziętara, M.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1280,12 +1532,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pomysł na opowiadanie fantastyczne ;  tł. Engelking, L.,  ~ s. 121</t>
+          <t>Pomysł na opowiadanie fantastyczne ;  tł. Engelking, L.,  1995 nr 5–6 (286–7) s. 121</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1301,6 +1556,9 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1315,14 +1573,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tł. Chądzyńska, Z.,  ~ s. 106–30 :</t>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BIOY CASARES, A., Wynalazek Morela,  ~ s. 120–2</t>
-        </is>
+          <t>BIOY CASARES, A., Wynalazek Morela,  1988 nr 12 (209) s. 120–2</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1336,12 +1597,19 @@
           <t>p r z e d m o w y  d o … ;</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CARLYLE, T., Sartor resartus,  ~ s. 107–8</t>
-        </is>
+          <t>CARLYLE, T., Sartor resartus,  1988 nr 12 (209) s. 107–8</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1355,12 +1623,19 @@
           <t>p r z e d m o w y  d o … ;</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CARROLL, L., Dzieła,  ~ s. 127–30</t>
-        </is>
+          <t>CARROLL, L., Dzieła,  1988 nr 12 (209) s. 127–30</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1374,12 +1649,19 @@
           <t>p r z e d m o w y  d o … ;</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SCHWOB, M., Krucjata dziecięca,  ~ s. 118–19</t>
-        </is>
+          <t>SCHWOB, M., Krucjata dziecięca,  1988 nr 12 (209) s. 118–19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1393,12 +1675,19 @@
           <t>p r z e d m o w y  d o … ;</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SWEDENBORG, E., Mystical works,  ~ s. 109–17</t>
-        </is>
+          <t>SWEDENBORG, E., Mystical works,  1988 nr 12 (209) s. 109–17</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1412,12 +1701,19 @@
           <t>p r z e d m o w y  d o … ;</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>tł. Chądzyńska, Z.,  1988 nr 12 (209) s. 106–30 :</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WHITMAN, W., Źdźbła trawy,  ~ s. 123–6</t>
-        </is>
+          <t>WHITMAN, W., Źdźbła trawy,  1988 nr 12 (209) s. 123–6</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1428,12 +1724,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Przeszkoda, 1972 nr 10 (18)  s. 70–3 *</t>
+          <t>Przeszkoda, 1972 nr 10 (18)  s. 70–3 tł. Chądzyńska, Z.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1443,16 +1742,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rozmowa trzecia z J.L. Borgesem ;</t>
+          <t>Rozmowa trzecia z J.L. Borgesem ; r o z m.  Milleret, J. De ;  tł. Nowicka-Obroniecka, B., 1988 nr 12 (209)  s. 92–105</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>r o z m.  Milleret, J. De ;  tł. Nowicka-Obroniecka, B., 1988 nr 12 (209)  s. 92–105</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1468,6 +1766,9 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1477,12 +1778,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Stwórca  (..) ;  tł. Kalicki, R.,  ~ nr 4 (12)  s. 60–3</t>
+          <t>Stwórca  (..) ;  tł. Kalicki, R.,  1972 nr 10 (18) nr 4 (12)  s. 60–3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1492,12 +1796,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Szkic autobiografii ;  tł. Chądzyńska, Z.,  ~ nr 10 (18)  s. 6–50</t>
+          <t>Szkic autobiografii ;  tł. Chądzyńska, Z.,  1972 nr 10 (18) nr 10 (18)  s. 6–50</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1513,6 +1820,9 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1528,6 +1838,9 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1537,12 +1850,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Świadek,  ~ s. 218–19 *</t>
+          <t>Świadek,  1973 nr 12 (32) s. 218–19 tł. Stachura, E.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1558,6 +1874,9 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1573,6 +1892,9 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1588,6 +1910,9 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1597,12 +1922,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Zoologia fantastyczna uzupełniona / Gondowicz, J. (..),  ~ s. 223–46</t>
+          <t>Zoologia fantastyczna uzupełniona / Gondowicz, J. (..),  1973 nr 12 (32) s. 223–46</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1612,12 +1940,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Żółta róża ;  tł. Stachura, E.,  ~  s. 216–17</t>
+          <t>Żółta róża ;  tł. Stachura, E.,  1973 nr 12 (32)  s. 216–17</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1641,6 +1972,9 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1653,13 +1987,20 @@
           <t>l i s t y</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>tł.</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wierzbicka, M., ~ s. 198–203,  Aćin, J., Autoryzowany apokryf  [list do Borgesa] ——</t>
+          <t>Wierzbicka, M., 1973 nr 12 (32) s. 198–203,  Aćin, J., Autoryzowany apokryf  [list do Borgesa] ——</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1669,12 +2010,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AĆIN, J., Nieskończoność czy ograniczenie,  ~ s. 186–97 *</t>
+          <t>AĆIN, J., Nieskończoność czy ograniczenie,  1973 nr 12 (32) s. 186–97 tł. Wierzbicka, M.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1684,16 +2028,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Antiborges / compil. de Lafforgue, M.,  Buenos Aires 1999</t>
+          <t>Antiborges / compil. de Lafforgue, M.,  Buenos Aires 1999 r e c.  Rodowska, K., Borges w ogniu krytyki, 2000 nr 3 (344)  s. 328–32</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>r e c.  Rodowska, K., Borges w ogniu krytyki, 2000 nr 3 (344)  s. 328–32</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1709,6 +2052,9 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1718,19 +2064,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BERVEILLER, M.</t>
+          <t>BERVEILLER, M. Le cosmopolitisme de Jorge Luis Borges,  Paris 1973</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Le cosmopolitisme de Jorge Luis Borges,  Paris 1973</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>r e c.  Kakiet, M., Borges wieloraki, 1976 nr 4 (60)  s. 360–1</t>
         </is>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1747,6 +2092,9 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1762,6 +2110,9 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1771,16 +2122,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ELBANOWSKI, A., Kilka uwag o prozie eseistycznej Borgesa,</t>
+          <t>ELBANOWSKI, A., Kilka uwag o prozie eseistycznej Borgesa, 1988 nr 12 (209)  s. 137–46</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1988 nr 12 (209)  s. 137–46</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1790,12 +2140,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ENGELKING, L., Od tłumacza,   ~ s. 135–6,  Borges, w i e r s z e</t>
+          <t>ENGELKING, L., Od tłumacza,   1988 nr 12 (209) s. 135–6,  Borges, w i e r s z e</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1811,6 +2164,9 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1820,16 +2176,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GOLOBOFF, G. M., Czy Borges stworzył „szkołę”? ;  tł. Komarnicki, I.,</t>
+          <t>GOLOBOFF, G. M., Czy Borges stworzył „szkołę”? ;  tł. Komarnicki, I., 1995 nr 5–6 (286–7)  s. 140–5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1995 nr 5–6 (286–7)  s. 140–5</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1845,6 +2200,9 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1860,6 +2218,9 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1869,19 +2230,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PAŁKA, E., QUINTANA, E.</t>
+          <t>PAŁKA, E., QUINTANA, E. Huidobro, Borges, Peiper y las primeras traducciones ultraistas al polaco, „Cuadernos Hispanoaméricanos” 1995 no. 541–2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Huidobro, Borges, Peiper y las primeras traducciones ultraistas al polaco,</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>„Cuadernos Hispanoaméricanos” 1995 no. 541–2</t>
-        </is>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -1892,7 +2248,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PAŁKA, E., QUINTANA, E.</t>
+          <t>PAŁKA, E., QUINTANA, E. Huidobro, Borges, Peiper y las primeras traducciones ultraistas al polaco, „Cuadernos Hispanoaméricanos” 1995 no. 541–2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1902,6 +2258,9 @@
           <t>r e c.  Rodowska, K., Hiszpański ultraizm po polsku (z Tadeuszem Peiperem w roli głównej), 1996 nr 3 (296)  s. 309–13</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1911,16 +2270,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PAZ, O., Portret Jorge Luisa Borgesa: łucznik, strzała i cel ; tł. Sławińska, G.,</t>
+          <t>PAZ, O., Portret Jorge Luisa Borgesa: łucznik, strzała i cel ; tł. Sławińska, G., 1988 nr 12 (209)  s. 4–13</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1988 nr 12 (209)  s. 4–13</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1930,16 +2288,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PIGLIA, R., Czy istnieje powieść argentyńska? : Borges a Gombrowicz ;</t>
+          <t>PIGLIA, R., Czy istnieje powieść argentyńska? : Borges a Gombrowicz ; tł. Suchanow, K., Radny, K., 2001 nr 4 (357)  s. 65–71</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>tł. Suchanow, K., Radny, K., 2001 nr 4 (357)  s. 65–71</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1955,6 +2312,9 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1970,6 +2330,9 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1985,6 +2348,9 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2000,6 +2366,9 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2015,6 +2384,9 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2030,6 +2402,9 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2045,6 +2420,9 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2060,6 +2438,9 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
